--- a/aggregated_by_state_add_season.xlsx
+++ b/aggregated_by_state_add_season.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADITHI\Desktop\nasa\gws\NASA_Hackathon_2024_Meteoric_Minds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E5DA618-BB4D-4884-ABFB-A37ABF331876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A226E605-9074-4975-AB88-00744F4BF53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1B1164C2-0836-4DB2-8304-FA641801C052}"/>
   </bookViews>
@@ -26268,7 +26268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02C56E7-9527-485D-BB9B-EBD908D260C7}">
   <dimension ref="A3:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
